--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,146 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="3">
         <v>1200</v>
       </c>
       <c r="F8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
       </c>
       <c r="O8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
@@ -819,23 +832,29 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,23 +1002,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
@@ -993,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,20 +1040,26 @@
       <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>300</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1300</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,87 +1243,95 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-500</v>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,29 +1354,29 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="F23" s="3">
         <v>-1100</v>
       </c>
       <c r="G23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-900</v>
       </c>
       <c r="M23" s="3">
         <v>-600</v>
       </c>
       <c r="N23" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="O23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
       </c>
       <c r="G26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-900</v>
       </c>
       <c r="M26" s="3">
         <v>-600</v>
       </c>
       <c r="N26" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="O26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="F27" s="3">
         <v>-1100</v>
       </c>
       <c r="G27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-900</v>
       </c>
       <c r="M27" s="3">
         <v>-600</v>
       </c>
       <c r="N27" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="O27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-900</v>
       </c>
       <c r="M33" s="3">
         <v>-600</v>
       </c>
       <c r="N33" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="O33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-900</v>
       </c>
       <c r="M35" s="3">
         <v>-600</v>
       </c>
       <c r="N35" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="O35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,10 +2282,16 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2110,11 +2301,11 @@
       <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
+      <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
@@ -2125,11 +2316,11 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,16 +2358,16 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2179,16 +2376,22 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,40 +2402,46 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2484,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2319,23 +2534,29 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2345,11 +2566,11 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,34 +2784,40 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -2578,13 +2829,19 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,28 +2878,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2652,159 +2913,183 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>2500</v>
       </c>
       <c r="L60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2813,22 +3098,22 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,11 +3144,11 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-900</v>
       </c>
       <c r="M81" s="3">
         <v>-600</v>
       </c>
       <c r="N81" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="O81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4319,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
@@ -3907,22 +4340,22 @@
         <v>-600</v>
       </c>
       <c r="G89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
@@ -3931,13 +4364,19 @@
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,14 +4554,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>600</v>
       </c>
       <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>600</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,32 +4909,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4451,9 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1200</v>
       </c>
       <c r="F8" s="3">
         <v>1200</v>
@@ -756,7 +760,7 @@
         <v>1200</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
@@ -765,7 +769,7 @@
         <v>500</v>
       </c>
       <c r="K8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
@@ -774,7 +778,7 @@
         <v>600</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -783,30 +787,33 @@
         <v>500</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,16 +857,16 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1400</v>
       </c>
       <c r="I17" s="3">
         <v>1400</v>
       </c>
       <c r="J17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>-1000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-900</v>
       </c>
       <c r="I18" s="3">
         <v>-900</v>
       </c>
       <c r="J18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,19 +1278,20 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1266,28 +1300,28 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1295,46 +1329,49 @@
       <c r="R20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
@@ -1345,41 +1382,44 @@
       <c r="R21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1395,49 +1435,52 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,49 +1594,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
@@ -1595,49 +1647,52 @@
       <c r="R26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,19 +1912,22 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1866,28 +1936,28 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -1895,49 +1965,52 @@
       <c r="R32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,49 +2071,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,17 +2226,18 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
@@ -2158,40 +2245,43 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,13 +2330,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2288,10 +2381,13 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2307,8 +2403,8 @@
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2364,13 +2463,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2382,21 +2481,24 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
@@ -2408,25 +2510,25 @@
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
@@ -2435,13 +2537,16 @@
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,34 +2595,37 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2540,25 +2648,28 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1300</v>
       </c>
       <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>1300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2572,8 +2683,8 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,37 +2913,40 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -2835,13 +2961,16 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,31 +3010,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2919,108 +3050,114 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2200</v>
       </c>
       <c r="I58" s="3">
         <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
+        <v>800</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3030,70 +3167,76 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3104,19 +3247,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
@@ -3130,13 +3273,16 @@
       <c r="R61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3150,8 +3296,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,104 +4089,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,16 +4539,19 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-600</v>
       </c>
       <c r="F89" s="3">
         <v>-600</v>
@@ -4346,28 +4563,28 @@
         <v>-600</v>
       </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,13 +4772,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4560,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,16 +5058,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>600</v>
@@ -4833,40 +5079,43 @@
         <v>600</v>
       </c>
       <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,35 +5164,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4960,9 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
@@ -763,7 +767,7 @@
         <v>1200</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
@@ -772,7 +776,7 @@
         <v>500</v>
       </c>
       <c r="L8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
@@ -781,7 +785,7 @@
         <v>600</v>
       </c>
       <c r="O8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
@@ -790,13 +794,16 @@
         <v>500</v>
       </c>
       <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,19 +811,19 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="3">
+        <v>300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -848,28 +855,31 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+      <c r="I10" s="3">
+        <v>900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1400</v>
       </c>
       <c r="J17" s="3">
         <v>1400</v>
       </c>
       <c r="K17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
         <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-900</v>
       </c>
       <c r="J18" s="3">
         <v>-900</v>
       </c>
       <c r="K18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,22 +1312,23 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1303,28 +1337,28 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1332,49 +1366,52 @@
       <c r="S20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-500</v>
@@ -1385,44 +1422,47 @@
       <c r="S21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1438,52 +1478,55 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,52 +1646,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
@@ -1650,52 +1702,55 @@
       <c r="S26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,22 +1982,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1939,28 +2009,28 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -1968,52 +2038,55 @@
       <c r="S32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,52 +2150,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,20 +2313,21 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
@@ -2248,63 +2335,66 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2435,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2384,10 +2477,13 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2406,8 +2502,8 @@
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2421,8 +2517,8 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,13 +2565,13 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2484,24 +2583,27 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
@@ -2513,25 +2615,25 @@
         <v>400</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
@@ -2540,13 +2642,16 @@
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,37 +2703,40 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,19 +2771,19 @@
         <v>2600</v>
       </c>
       <c r="E49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>1300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,40 +3039,43 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -2964,13 +3090,16 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,34 +3141,35 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3053,114 +3184,120 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2200</v>
       </c>
       <c r="J58" s="3">
         <v>2200</v>
       </c>
       <c r="K58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3170,76 +3307,82 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3250,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
-        <v>100</v>
-      </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -3276,17 +3419,20 @@
       <c r="S61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
@@ -3299,8 +3445,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,110 +4281,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
@@ -4566,28 +4783,28 @@
         <v>-600</v>
       </c>
       <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,17 +5002,20 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4793,11 +5023,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>600</v>
       </c>
       <c r="G100" s="3">
         <v>600</v>
@@ -5082,40 +5328,43 @@
         <v>600</v>
       </c>
       <c r="I100" s="3">
+        <v>600</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,38 +5416,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5215,9 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,185 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1300</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
       </c>
       <c r="H8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I8" s="3">
         <v>1200</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
       </c>
       <c r="M8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
       </c>
       <c r="S8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -858,35 +871,41 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,35 +1081,41 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E14" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F14" s="3">
         <v>500</v>
       </c>
       <c r="G14" s="3">
+        <v>400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>500</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
@@ -1084,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1092,28 +1131,34 @@
       <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>300</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,111 +1378,119 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-500</v>
       </c>
       <c r="S21" s="3">
         <v>-500</v>
@@ -1425,50 +1498,56 @@
       <c r="T21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-1100</v>
       </c>
       <c r="K23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-900</v>
       </c>
       <c r="Q23" s="3">
         <v>-600</v>
       </c>
       <c r="R23" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="S23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-900</v>
       </c>
       <c r="J26" s="3">
         <v>-1100</v>
       </c>
       <c r="K26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-900</v>
       </c>
       <c r="Q26" s="3">
         <v>-600</v>
       </c>
       <c r="R26" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="S26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-900</v>
       </c>
       <c r="J27" s="3">
         <v>-1100</v>
       </c>
       <c r="K27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-900</v>
       </c>
       <c r="Q27" s="3">
         <v>-600</v>
       </c>
       <c r="R27" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="S27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-900</v>
       </c>
       <c r="J33" s="3">
         <v>-1100</v>
       </c>
       <c r="K33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-900</v>
       </c>
       <c r="Q33" s="3">
         <v>-600</v>
       </c>
       <c r="R33" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="S33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-900</v>
       </c>
       <c r="J35" s="3">
         <v>-1100</v>
       </c>
       <c r="K35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-900</v>
       </c>
       <c r="Q35" s="3">
         <v>-600</v>
       </c>
       <c r="R35" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="S35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,75 +2485,83 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -2396,11 +2575,11 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2426,23 +2605,29 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2480,10 +2665,16 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2505,11 +2696,11 @@
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
@@ -2520,11 +2711,11 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2538,13 +2729,19 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2568,16 +2765,16 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2586,30 +2783,36 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
@@ -2618,40 +2821,46 @@
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,34 +2930,34 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2762,35 +2977,41 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F49" s="3">
         <v>2600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2800,11 +3021,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,46 +3287,52 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -3093,13 +3344,19 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3401,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3187,208 +3448,232 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3100</v>
       </c>
       <c r="O60" s="3">
         <v>2500</v>
       </c>
       <c r="P60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3396,22 +3681,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
@@ -3422,23 +3707,29 @@
       <c r="T61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>300</v>
+      </c>
+      <c r="V61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
@@ -3448,11 +3739,11 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-900</v>
       </c>
       <c r="J81" s="3">
         <v>-1100</v>
       </c>
       <c r="K81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-900</v>
       </c>
       <c r="Q81" s="3">
         <v>-600</v>
       </c>
       <c r="R81" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="S81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4818,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,25 +5186,31 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
@@ -4786,22 +5219,22 @@
         <v>-600</v>
       </c>
       <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
@@ -4810,13 +5243,19 @@
         <v>-300</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,25 +5276,27 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,35 +5458,41 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>600</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
       </c>
       <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>600</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>400</v>
       </c>
       <c r="R100" s="3">
         <v>300</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,44 +5916,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5470,9 +5973,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1200</v>
@@ -783,7 +787,7 @@
         <v>1200</v>
       </c>
       <c r="L8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M8" s="3">
         <v>500</v>
@@ -792,7 +796,7 @@
         <v>500</v>
       </c>
       <c r="O8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
@@ -801,7 +805,7 @@
         <v>600</v>
       </c>
       <c r="R8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
@@ -810,42 +814,45 @@
         <v>500</v>
       </c>
       <c r="U8" s="3">
+        <v>500</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="L9" s="3">
+        <v>300</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -877,37 +884,40 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="L10" s="3">
+        <v>900</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1184,7 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1400</v>
       </c>
       <c r="M17" s="3">
         <v>1400</v>
       </c>
       <c r="N17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1000</v>
       </c>
       <c r="H18" s="3">
         <v>-1000</v>
       </c>
       <c r="I18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-900</v>
       </c>
       <c r="M18" s="3">
         <v>-900</v>
       </c>
       <c r="N18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-400</v>
       </c>
       <c r="U18" s="3">
         <v>-400</v>
       </c>
       <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,31 +1413,32 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1413,28 +1447,28 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
@@ -1442,58 +1476,61 @@
       <c r="V20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
@@ -1504,53 +1541,56 @@
       <c r="V21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1566,61 +1606,64 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,61 +1801,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
@@ -1814,61 +1866,64 @@
       <c r="V26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,31 +2191,34 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2157,28 +2227,28 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
@@ -2186,61 +2256,64 @@
       <c r="V32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,61 +2386,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,29 +2573,30 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
@@ -2517,40 +2604,43 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2560,11 +2650,11 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -2581,8 +2671,8 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,13 +2716,13 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2671,10 +2764,13 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2702,8 +2798,8 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
@@ -2717,8 +2813,8 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2735,16 +2831,19 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2771,13 +2870,13 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2789,33 +2888,36 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
@@ -2827,25 +2929,25 @@
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -2854,13 +2956,16 @@
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,46 +3026,49 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2983,37 +3091,40 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E49" s="3">
         <v>6600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2600</v>
       </c>
       <c r="G49" s="3">
         <v>2600</v>
       </c>
       <c r="H49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1300</v>
       </c>
       <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>1300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -3027,8 +3138,8 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,49 +3416,52 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
@@ -3350,13 +3476,16 @@
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,34 +3543,34 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3454,132 +3585,138 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2000</v>
       </c>
       <c r="F58" s="3">
         <v>2000</v>
       </c>
       <c r="G58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2200</v>
       </c>
       <c r="M58" s="3">
         <v>2200</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3589,94 +3726,100 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3687,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="P61" s="3">
-        <v>100</v>
-      </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,17 +3868,17 @@
         <v>1700</v>
       </c>
       <c r="E62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
@@ -3745,8 +3891,8 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,128 +4856,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,28 +5406,31 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-600</v>
       </c>
       <c r="J89" s="3">
         <v>-600</v>
@@ -5225,28 +5442,28 @@
         <v>-600</v>
       </c>
       <c r="M89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-300</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5292,14 +5513,14 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,26 +5691,29 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5491,11 +5721,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,28 +6041,31 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>4400</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>600</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
@@ -5828,40 +6074,43 @@
         <v>600</v>
       </c>
       <c r="L100" s="3">
+        <v>600</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,47 +6171,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5979,9 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -790,7 +794,7 @@
         <v>1200</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
@@ -799,7 +803,7 @@
         <v>500</v>
       </c>
       <c r="P8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
@@ -808,7 +812,7 @@
         <v>600</v>
       </c>
       <c r="S8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
@@ -817,13 +821,16 @@
         <v>500</v>
       </c>
       <c r="V8" s="3">
+        <v>500</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,31 +838,31 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+      <c r="M9" s="3">
+        <v>300</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -887,40 +894,43 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>900</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="M10" s="3">
+        <v>900</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1210,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1400</v>
       </c>
       <c r="N17" s="3">
         <v>1400</v>
       </c>
       <c r="O17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1000</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-900</v>
       </c>
       <c r="N18" s="3">
         <v>-900</v>
       </c>
       <c r="O18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-400</v>
       </c>
       <c r="V18" s="3">
         <v>-400</v>
       </c>
       <c r="W18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,34 +1447,35 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1450,28 +1484,28 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
@@ -1479,61 +1513,64 @@
       <c r="W20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-500</v>
       </c>
       <c r="U21" s="3">
         <v>-500</v>
@@ -1544,56 +1581,59 @@
       <c r="W21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1609,64 +1649,67 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1853,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
@@ -1869,64 +1921,67 @@
       <c r="W26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,34 +2261,37 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2230,28 +2300,28 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
@@ -2259,64 +2329,67 @@
       <c r="W32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,64 +2465,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,32 +2660,33 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
@@ -2607,40 +2694,43 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,11 +2743,11 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -2674,8 +2764,8 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2719,13 +2812,13 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2767,10 +2860,13 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2801,8 +2897,8 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
@@ -2816,8 +2912,8 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,10 +2942,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2873,13 +2972,13 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -2891,36 +2990,39 @@
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -2932,25 +3034,25 @@
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
@@ -2959,13 +3061,16 @@
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,49 +3134,52 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3094,40 +3202,43 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2600</v>
       </c>
       <c r="H49" s="3">
         <v>2600</v>
       </c>
       <c r="I49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1300</v>
       </c>
       <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>1300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,52 +3542,55 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
@@ -3479,13 +3605,16 @@
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,46 +3664,47 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3588,138 +3719,144 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2200</v>
       </c>
       <c r="N58" s="3">
         <v>2200</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3729,73 +3866,79 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,26 +3946,26 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3833,19 +3976,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>100</v>
-      </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -3859,29 +4002,32 @@
       <c r="W61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>1700</v>
       </c>
       <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
@@ -3894,8 +4040,8 @@
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E76" s="3">
         <v>6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,134 +5048,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,7 +5233,7 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,31 +5623,34 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-600</v>
@@ -5445,28 +5662,28 @@
         <v>-600</v>
       </c>
       <c r="N89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5516,14 +5737,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,29 +5921,32 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5724,11 +5954,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,31 +6287,34 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4400</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>600</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
@@ -6077,40 +6323,43 @@
         <v>600</v>
       </c>
       <c r="M100" s="3">
+        <v>600</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,50 +6423,53 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6234,9 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,133 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1200</v>
       </c>
       <c r="L8" s="3">
         <v>1200</v>
@@ -797,7 +800,7 @@
         <v>1200</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -806,7 +809,7 @@
         <v>500</v>
       </c>
       <c r="Q8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
@@ -815,7 +818,7 @@
         <v>600</v>
       </c>
       <c r="T8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>500</v>
@@ -824,13 +827,16 @@
         <v>500</v>
       </c>
       <c r="W8" s="3">
+        <v>500</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,31 +847,31 @@
         <v>700</v>
       </c>
       <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+      <c r="N9" s="3">
+        <v>300</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
@@ -897,43 +903,46 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
+      <c r="N10" s="3">
+        <v>900</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,67 +1155,70 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1235,7 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1400</v>
       </c>
       <c r="O17" s="3">
         <v>1400</v>
       </c>
       <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1000</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-900</v>
       </c>
       <c r="O18" s="3">
         <v>-900</v>
       </c>
       <c r="P18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-400</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
       </c>
       <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,37 +1480,38 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1487,28 +1520,28 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
@@ -1516,64 +1549,67 @@
       <c r="X20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-500</v>
       </c>
       <c r="V21" s="3">
         <v>-500</v>
@@ -1584,59 +1620,62 @@
       <c r="X21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1652,67 +1691,70 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-500</v>
       </c>
       <c r="W23" s="3">
         <v>-500</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,67 +1904,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-500</v>
       </c>
       <c r="W26" s="3">
         <v>-500</v>
@@ -1924,67 +1975,70 @@
       <c r="X26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-500</v>
       </c>
       <c r="W27" s="3">
         <v>-500</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,37 +2330,40 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2303,28 +2372,28 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
@@ -2332,67 +2401,70 @@
       <c r="X32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-500</v>
       </c>
       <c r="W33" s="3">
         <v>-500</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,67 +2543,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-500</v>
       </c>
       <c r="W35" s="3">
         <v>-500</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,35 +2746,36 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
@@ -2697,40 +2783,43 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2746,11 +2835,11 @@
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2767,8 +2856,8 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2815,13 +2907,13 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2863,10 +2955,13 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2900,8 +2995,8 @@
       <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
+      <c r="N44" s="3">
+        <v>100</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
@@ -2915,8 +3010,8 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,10 +3043,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2975,13 +3073,13 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
@@ -2993,39 +3091,42 @@
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
@@ -3037,25 +3138,25 @@
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
@@ -3064,13 +3165,16 @@
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,52 +3241,55 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3205,43 +3312,46 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2600</v>
       </c>
       <c r="I49" s="3">
         <v>2600</v>
       </c>
       <c r="J49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1300</v>
       </c>
       <c r="M49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>1300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
@@ -3255,8 +3365,8 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3525,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,55 +3667,58 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>13000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
@@ -3608,13 +3733,16 @@
         <v>400</v>
       </c>
       <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,49 +3794,50 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3722,144 +3852,150 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1700</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
       </c>
       <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2200</v>
       </c>
       <c r="O58" s="3">
         <v>2200</v>
       </c>
       <c r="P58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1200</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3869,106 +4005,112 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3979,19 +4121,19 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
-        <v>100</v>
-      </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
@@ -4005,32 +4147,35 @@
       <c r="X61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
       </c>
       <c r="G62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
@@ -4043,8 +4188,8 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E76" s="3">
         <v>8800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,140 +5239,146 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-500</v>
       </c>
       <c r="W81" s="3">
         <v>-500</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5434,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,34 +5839,37 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-600</v>
       </c>
       <c r="L89" s="3">
         <v>-600</v>
@@ -5665,28 +5881,28 @@
         <v>-600</v>
       </c>
       <c r="O89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5740,14 +5960,14 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,32 +6150,35 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5957,11 +6186,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,34 +6532,37 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4400</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>600</v>
       </c>
       <c r="L100" s="3">
         <v>600</v>
@@ -6326,40 +6571,43 @@
         <v>600</v>
       </c>
       <c r="N100" s="3">
+        <v>600</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,53 +6674,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,197 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="3">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="F8" s="3">
         <v>1700</v>
       </c>
       <c r="G8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1300</v>
       </c>
       <c r="L8" s="3">
         <v>1200</v>
       </c>
       <c r="M8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="N8" s="3">
         <v>1200</v>
       </c>
       <c r="O8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="P8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Q8" s="3">
         <v>500</v>
       </c>
       <c r="R8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
       </c>
       <c r="U8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>500</v>
       </c>
       <c r="X8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>700</v>
@@ -850,35 +864,35 @@
         <v>700</v>
       </c>
       <c r="G9" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>700</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>700</v>
+      </c>
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -906,50 +920,56 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>3300</v>
+        <v>900</v>
       </c>
       <c r="F10" s="3">
         <v>1000</v>
       </c>
       <c r="G10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,38 +1198,38 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>400</v>
       </c>
       <c r="K14" s="3">
         <v>500</v>
       </c>
       <c r="L14" s="3">
+        <v>400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>500</v>
+      </c>
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
@@ -1197,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1205,20 +1245,26 @@
       <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>300</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,10 +1284,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1300</v>
       </c>
       <c r="V17" s="3">
         <v>1000</v>
       </c>
       <c r="W17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,141 +1547,149 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-500</v>
       </c>
       <c r="X21" s="3">
         <v>-500</v>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,54 +1714,54 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-900</v>
       </c>
       <c r="O23" s="3">
         <v>-1100</v>
       </c>
       <c r="P23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-900</v>
       </c>
       <c r="V23" s="3">
         <v>-600</v>
       </c>
       <c r="W23" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="X23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-900</v>
       </c>
       <c r="O26" s="3">
         <v>-1100</v>
       </c>
       <c r="P26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-900</v>
       </c>
       <c r="V26" s="3">
         <v>-600</v>
       </c>
       <c r="W26" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="X26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-900</v>
       </c>
       <c r="O27" s="3">
         <v>-1100</v>
       </c>
       <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-900</v>
       </c>
       <c r="V27" s="3">
         <v>-600</v>
       </c>
       <c r="W27" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="X27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
-      </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-900</v>
       </c>
       <c r="O33" s="3">
         <v>-1100</v>
       </c>
       <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-900</v>
       </c>
       <c r="V33" s="3">
         <v>-600</v>
       </c>
       <c r="W33" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="X33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-900</v>
       </c>
       <c r="O35" s="3">
         <v>-1100</v>
       </c>
       <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-900</v>
       </c>
       <c r="V35" s="3">
         <v>-600</v>
       </c>
       <c r="W35" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="X35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2838,14 +3018,14 @@
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
@@ -2859,11 +3039,11 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2910,17 +3096,17 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
@@ -2958,18 +3144,24 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2998,11 +3190,11 @@
       <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>5</v>
@@ -3013,11 +3205,11 @@
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3046,13 +3244,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3076,16 +3274,16 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
@@ -3094,45 +3292,51 @@
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
@@ -3141,40 +3345,46 @@
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
       <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,58 +3454,64 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>800</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
+        <v>800</v>
+      </c>
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3324,41 +3546,41 @@
         <v>6000</v>
       </c>
       <c r="E49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G49" s="3">
         <v>6200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3368,11 +3590,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3537,10 +3777,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,61 +3916,67 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
@@ -3736,13 +3988,19 @@
         <v>400</v>
       </c>
       <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,55 +4055,57 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3855,19 +4117,25 @@
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3878,72 +4146,78 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
@@ -3952,135 +4226,147 @@
         <v>1100</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="F60" s="3">
         <v>1900</v>
       </c>
       <c r="G60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3100</v>
       </c>
       <c r="T60" s="3">
         <v>2500</v>
       </c>
       <c r="U60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,35 +4374,35 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4124,22 +4410,22 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1500</v>
       </c>
-      <c r="S61" s="3">
-        <v>100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>300</v>
@@ -4150,38 +4436,44 @@
       <c r="Y61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
@@ -4191,11 +4483,11 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
@@ -4203,11 +4495,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-30500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F76" s="3">
         <v>7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-900</v>
       </c>
       <c r="O81" s="3">
         <v>-1100</v>
       </c>
       <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-900</v>
       </c>
       <c r="V81" s="3">
         <v>-600</v>
       </c>
       <c r="W81" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="X81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5437,10 +5835,10 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,40 +6270,46 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1200</v>
       </c>
       <c r="H89" s="3">
         <v>-1000</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="J89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-600</v>
       </c>
       <c r="N89" s="3">
         <v>-600</v>
@@ -5884,22 +6318,22 @@
         <v>-600</v>
       </c>
       <c r="P89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
@@ -5908,13 +6342,19 @@
         <v>-300</v>
       </c>
       <c r="X89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5963,17 +6405,17 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,50 +6607,56 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,70 +7036,76 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>600</v>
       </c>
       <c r="N100" s="3">
         <v>600</v>
       </c>
       <c r="O100" s="3">
+        <v>600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
-      </c>
-      <c r="U100" s="3">
-        <v>300</v>
-      </c>
-      <c r="V100" s="3">
-        <v>400</v>
       </c>
       <c r="W100" s="3">
         <v>300</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,59 +7175,65 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6743,9 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>1600</v>
       </c>
       <c r="F8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1200</v>
       </c>
       <c r="O8" s="3">
         <v>1200</v>
@@ -817,7 +821,7 @@
         <v>1200</v>
       </c>
       <c r="Q8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
@@ -826,7 +830,7 @@
         <v>500</v>
       </c>
       <c r="T8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
@@ -835,7 +839,7 @@
         <v>600</v>
       </c>
       <c r="W8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X8" s="3">
         <v>500</v>
@@ -844,13 +848,16 @@
         <v>500</v>
       </c>
       <c r="Z8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,7 +865,7 @@
         <v>800</v>
       </c>
       <c r="E9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
@@ -870,31 +877,31 @@
         <v>700</v>
       </c>
       <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
+      <c r="Q9" s="3">
+        <v>300</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
@@ -926,52 +933,55 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>900</v>
       </c>
       <c r="J10" s="3">
         <v>900</v>
       </c>
       <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
+      <c r="Q10" s="3">
+        <v>900</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1204,67 +1224,70 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3200</v>
       </c>
       <c r="F17" s="3">
         <v>3200</v>
       </c>
       <c r="G17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1400</v>
       </c>
       <c r="R17" s="3">
         <v>1400</v>
       </c>
       <c r="S17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1000</v>
       </c>
       <c r="M18" s="3">
         <v>-1000</v>
       </c>
       <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-900</v>
       </c>
       <c r="R18" s="3">
         <v>-900</v>
       </c>
       <c r="S18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-400</v>
       </c>
       <c r="Z18" s="3">
         <v>-400</v>
       </c>
       <c r="AA18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,37 +1592,37 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1597,28 +1631,28 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
@@ -1626,73 +1660,76 @@
       <c r="AA20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-500</v>
       </c>
       <c r="Y21" s="3">
         <v>-500</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1720,51 +1760,51 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1780,76 +1820,79 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-500</v>
       </c>
       <c r="Z23" s="3">
         <v>-500</v>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,76 +2060,79 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-500</v>
       </c>
       <c r="Z26" s="3">
         <v>-500</v>
@@ -2088,76 +2140,79 @@
       <c r="AA26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-500</v>
       </c>
       <c r="Z27" s="3">
         <v>-500</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,37 +2552,37 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2521,28 +2591,28 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>100</v>
@@ -2550,76 +2620,79 @@
       <c r="AA32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-500</v>
       </c>
       <c r="Z33" s="3">
         <v>-500</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,76 +2780,79 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-500</v>
       </c>
       <c r="Z35" s="3">
         <v>-500</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,44 +3007,45 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
@@ -2966,69 +3053,72 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
@@ -3045,8 +3135,8 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3102,13 +3195,13 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -3150,10 +3243,13 @@
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3164,7 +3260,7 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -3196,8 +3292,8 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
+      <c r="Q44" s="3">
+        <v>100</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
@@ -3211,8 +3307,8 @@
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3250,10 +3349,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3280,13 +3379,13 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
@@ -3298,48 +3397,51 @@
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
@@ -3351,25 +3453,25 @@
         <v>400</v>
       </c>
       <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
@@ -3378,13 +3480,16 @@
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,61 +3565,64 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3537,52 +3645,55 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E49" s="3">
         <v>6000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2600</v>
       </c>
       <c r="L49" s="3">
         <v>2600</v>
       </c>
       <c r="M49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1300</v>
       </c>
       <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="Q49" s="3">
+        <v>1300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
@@ -3596,8 +3707,8 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3783,7 +3903,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,64 +4045,67 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>400</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
@@ -3994,13 +4120,16 @@
         <v>400</v>
       </c>
       <c r="Z54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,58 +4187,59 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -4123,96 +4254,102 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1700</v>
       </c>
       <c r="K58" s="3">
         <v>1700</v>
       </c>
       <c r="L58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2200</v>
       </c>
       <c r="R58" s="3">
         <v>2200</v>
       </c>
       <c r="S58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4223,62 +4360,62 @@
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4288,90 +4425,96 @@
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -4380,32 +4523,32 @@
         <v>600</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>500</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4416,19 +4559,19 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1500</v>
       </c>
-      <c r="U61" s="3">
-        <v>100</v>
-      </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
@@ -4442,41 +4585,44 @@
       <c r="AA61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1700</v>
       </c>
       <c r="I62" s="3">
         <v>1700</v>
       </c>
       <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
@@ -4489,8 +4635,8 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,158 +5815,164 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-500</v>
       </c>
       <c r="Z81" s="3">
         <v>-500</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,7 +6040,7 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,34 +6502,34 @@
         <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-600</v>
       </c>
       <c r="O89" s="3">
         <v>-600</v>
@@ -6324,28 +6541,28 @@
         <v>-600</v>
       </c>
       <c r="R89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-300</v>
       </c>
       <c r="Z89" s="3">
         <v>-300</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6411,14 +6632,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,41 +6840,44 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6655,11 +6885,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,13 +7270,16 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7042,28 +7288,28 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>600</v>
       </c>
       <c r="O100" s="3">
         <v>600</v>
@@ -7072,40 +7318,43 @@
         <v>600</v>
       </c>
       <c r="Q100" s="3">
+        <v>600</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,62 +7430,65 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7253,9 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,226 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4000</v>
       </c>
       <c r="I8" s="3">
         <v>1700</v>
       </c>
       <c r="J8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1300</v>
       </c>
       <c r="O8" s="3">
         <v>1200</v>
       </c>
       <c r="P8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q8" s="3">
         <v>1200</v>
       </c>
       <c r="R8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="S8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
       </c>
       <c r="U8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
       </c>
       <c r="X8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z8" s="3">
         <v>500</v>
       </c>
       <c r="AA8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB8" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>700</v>
@@ -880,35 +893,35 @@
         <v>700</v>
       </c>
       <c r="J9" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>700</v>
       </c>
       <c r="L9" s="3">
+        <v>900</v>
+      </c>
+      <c r="M9" s="3">
+        <v>700</v>
+      </c>
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
@@ -936,59 +949,65 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3300</v>
       </c>
       <c r="I10" s="3">
         <v>1000</v>
       </c>
       <c r="J10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1227,38 +1266,38 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>400</v>
       </c>
       <c r="N14" s="3">
         <v>500</v>
       </c>
       <c r="O14" s="3">
+        <v>400</v>
+      </c>
+      <c r="P14" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
@@ -1266,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1274,25 +1313,31 @@
       <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>300</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1316,10 +1361,10 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="E17" s="3">
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="F17" s="3">
         <v>3200</v>
       </c>
       <c r="G17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1300</v>
       </c>
       <c r="Y17" s="3">
         <v>1000</v>
       </c>
       <c r="Z17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,159 +1648,167 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-900</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-500</v>
       </c>
       <c r="AA21" s="3">
         <v>-500</v>
@@ -1743,13 +1816,19 @@
       <c r="AB21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1763,54 +1842,54 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-900</v>
       </c>
       <c r="R23" s="3">
         <v>-1100</v>
       </c>
       <c r="S23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-900</v>
       </c>
       <c r="Y23" s="3">
         <v>-600</v>
       </c>
       <c r="Z23" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="AA23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-900</v>
       </c>
       <c r="R26" s="3">
         <v>-1100</v>
       </c>
       <c r="S26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-900</v>
       </c>
       <c r="Y26" s="3">
         <v>-600</v>
       </c>
       <c r="Z26" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="AA26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-900</v>
       </c>
       <c r="R27" s="3">
         <v>-1100</v>
       </c>
       <c r="S27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-900</v>
       </c>
       <c r="Y27" s="3">
         <v>-600</v>
       </c>
       <c r="Z27" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="AA27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,31 +2418,37 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>100</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
-      </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-900</v>
       </c>
       <c r="R33" s="3">
         <v>-1100</v>
       </c>
       <c r="S33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-900</v>
       </c>
       <c r="Y33" s="3">
         <v>-600</v>
       </c>
       <c r="Z33" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="AA33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-900</v>
       </c>
       <c r="R35" s="3">
         <v>-1100</v>
       </c>
       <c r="S35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-900</v>
       </c>
       <c r="Y35" s="3">
         <v>-600</v>
       </c>
       <c r="Z35" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="AA35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3114,8 +3293,8 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3123,8 +3302,8 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
@@ -3138,11 +3317,11 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3168,16 +3347,22 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3198,17 +3383,17 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
@@ -3246,10 +3431,16 @@
         <v>100</v>
       </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3263,10 +3454,10 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -3295,11 +3486,11 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
@@ -3310,11 +3501,11 @@
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3352,13 +3549,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3382,16 +3579,16 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
@@ -3400,54 +3597,60 @@
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
@@ -3456,40 +3659,46 @@
         <v>400</v>
       </c>
       <c r="R46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,67 +3777,73 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>900</v>
       </c>
       <c r="L48" s="3">
         <v>800</v>
       </c>
       <c r="M48" s="3">
+        <v>900</v>
+      </c>
+      <c r="N48" s="3">
+        <v>800</v>
+      </c>
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3648,16 +3863,22 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5800</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>5800</v>
@@ -3666,41 +3887,41 @@
         <v>6000</v>
       </c>
       <c r="H49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J49" s="3">
         <v>6200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3710,11 +3931,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4121,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3906,10 +4145,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,70 +4293,76 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F54" s="3">
         <v>7500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>400</v>
@@ -4123,13 +4374,19 @@
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,64 +4447,66 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4257,31 +4518,37 @@
         <v>300</v>
       </c>
       <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
@@ -4289,81 +4556,87 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
@@ -4372,144 +4645,156 @@
         <v>1100</v>
       </c>
       <c r="J59" s="3">
+        <v>900</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2700</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
       </c>
       <c r="J60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>3100</v>
       </c>
       <c r="W60" s="3">
         <v>2500</v>
       </c>
       <c r="X60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,44 +4802,44 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4562,22 +4847,22 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1500</v>
       </c>
-      <c r="V61" s="3">
-        <v>100</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
@@ -4588,47 +4873,53 @@
       <c r="AB61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
-      </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
@@ -4638,11 +4929,11 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
@@ -4650,11 +4941,11 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-36700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-9300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
         <v>4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-900</v>
       </c>
       <c r="R81" s="3">
         <v>-1100</v>
       </c>
       <c r="S81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-900</v>
       </c>
       <c r="Y81" s="3">
         <v>-600</v>
       </c>
       <c r="Z81" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="AA81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6408,15 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -6043,10 +6440,10 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,49 +6920,55 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-1000</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="M89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-600</v>
       </c>
       <c r="Q89" s="3">
         <v>-600</v>
@@ -6544,22 +6977,22 @@
         <v>-600</v>
       </c>
       <c r="S89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-300</v>
       </c>
       <c r="Y89" s="3">
         <v>-500</v>
@@ -6568,13 +7001,19 @@
         <v>-300</v>
       </c>
       <c r="AA89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="AB89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6635,17 +7076,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,59 +7296,65 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>600</v>
       </c>
       <c r="Q100" s="3">
         <v>600</v>
       </c>
       <c r="R100" s="3">
+        <v>600</v>
+      </c>
+      <c r="S100" s="3">
+        <v>600</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
-      </c>
-      <c r="X100" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>400</v>
       </c>
       <c r="Z100" s="3">
         <v>300</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AB100" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,68 +7930,74 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7508,9 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,174 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
       </c>
       <c r="H8" s="3">
         <v>1600</v>
       </c>
       <c r="I8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1200</v>
       </c>
       <c r="R8" s="3">
         <v>1200</v>
@@ -837,7 +841,7 @@
         <v>1200</v>
       </c>
       <c r="T8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="U8" s="3">
         <v>500</v>
@@ -846,7 +850,7 @@
         <v>500</v>
       </c>
       <c r="W8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X8" s="3">
         <v>600</v>
@@ -855,7 +859,7 @@
         <v>600</v>
       </c>
       <c r="Z8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA8" s="3">
         <v>500</v>
@@ -864,13 +868,16 @@
         <v>500</v>
       </c>
       <c r="AC8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD8" s="3">
         <v>400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,13 +888,13 @@
         <v>700</v>
       </c>
       <c r="F9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G9" s="3">
         <v>800</v>
       </c>
       <c r="H9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I9" s="3">
         <v>700</v>
@@ -899,31 +906,31 @@
         <v>700</v>
       </c>
       <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
+      <c r="T9" s="3">
+        <v>300</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
@@ -955,61 +962,64 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
       <c r="N10" s="3">
+        <v>900</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
+      <c r="T10" s="3">
+        <v>900</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,11 +1274,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1272,67 +1292,70 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1363,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1367,7 +1390,7 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3200</v>
       </c>
       <c r="I17" s="3">
         <v>3200</v>
       </c>
       <c r="J17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1400</v>
       </c>
       <c r="U17" s="3">
         <v>1400</v>
       </c>
       <c r="V17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1000</v>
       </c>
       <c r="P18" s="3">
         <v>-1000</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-900</v>
       </c>
       <c r="U18" s="3">
         <v>-900</v>
       </c>
       <c r="V18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-400</v>
       </c>
       <c r="AC18" s="3">
         <v>-400</v>
       </c>
       <c r="AD18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,16 +1683,17 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>2500</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1668,37 +1702,37 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1707,28 +1741,28 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>-100</v>
@@ -1736,82 +1770,85 @@
       <c r="AD20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1600</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-500</v>
       </c>
       <c r="AB21" s="3">
         <v>-500</v>
@@ -1822,16 +1859,19 @@
       <c r="AD21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1848,51 +1888,51 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
@@ -1908,85 +1948,88 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1500</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-500</v>
       </c>
       <c r="AC23" s="3">
         <v>-500</v>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2175,76 +2227,76 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-500</v>
       </c>
       <c r="AC26" s="3">
         <v>-500</v>
@@ -2252,8 +2304,11 @@
       <c r="AD26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2261,76 +2316,76 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-500</v>
       </c>
       <c r="AC27" s="3">
         <v>-500</v>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2433,11 +2494,11 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F29" s="3">
         <v>-700</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2450,8 +2511,8 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,16 +2749,19 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-2500</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2700,37 +2770,37 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2739,28 +2809,28 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>100</v>
-      </c>
       <c r="Z32" s="3">
         <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>100</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,76 +2850,76 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-500</v>
       </c>
       <c r="AC33" s="3">
         <v>-500</v>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2949,76 +3028,76 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-500</v>
       </c>
       <c r="AC35" s="3">
         <v>-500</v>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,53 +3267,54 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
@@ -3235,40 +3322,43 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
       <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3299,14 +3389,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
@@ -3323,8 +3413,8 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3353,19 +3443,22 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3389,13 +3482,13 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3437,10 +3530,13 @@
         <v>100</v>
       </c>
       <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3460,7 +3556,7 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -3492,8 +3588,8 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>5</v>
@@ -3507,8 +3603,8 @@
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3525,20 +3621,23 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -3555,10 +3654,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3585,13 +3684,13 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
@@ -3603,57 +3702,60 @@
         <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
@@ -3665,25 +3767,25 @@
         <v>400</v>
       </c>
       <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
-      </c>
-      <c r="X46" s="3">
-        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>400</v>
       </c>
       <c r="Z46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
@@ -3692,13 +3794,16 @@
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,70 +3888,73 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3869,61 +3977,64 @@
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
       </c>
       <c r="F49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G49" s="3">
         <v>5800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2600</v>
       </c>
       <c r="O49" s="3">
         <v>2600</v>
       </c>
       <c r="P49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1300</v>
       </c>
       <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
+      <c r="T49" s="3">
+        <v>1300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
@@ -3937,8 +4048,8 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,16 +4244,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -4151,7 +4271,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,73 +4422,76 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
-      </c>
-      <c r="X54" s="3">
-        <v>400</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
@@ -4380,13 +4506,16 @@
         <v>400</v>
       </c>
       <c r="AC54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,67 +4579,68 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4524,116 +4655,122 @@
         <v>300</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1700</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
       </c>
       <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2200</v>
       </c>
       <c r="U58" s="3">
         <v>2200</v>
       </c>
       <c r="V58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="W58" s="3">
         <v>800</v>
       </c>
       <c r="X58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
@@ -4642,62 +4779,62 @@
         <v>900</v>
       </c>
       <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
       </c>
       <c r="M59" s="3">
         <v>1200</v>
       </c>
       <c r="N59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
       </c>
       <c r="V59" s="3">
+        <v>800</v>
+      </c>
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,85 +4856,88 @@
         <v>3300</v>
       </c>
       <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4808,7 +4951,7 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -4817,32 +4960,32 @@
         <v>600</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4853,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1500</v>
       </c>
-      <c r="X61" s="3">
-        <v>100</v>
-      </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>300</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,41 +5034,41 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
       <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1700</v>
       </c>
       <c r="L62" s="3">
         <v>1700</v>
       </c>
       <c r="M62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
-        <v>100</v>
-      </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
@@ -4935,8 +5081,8 @@
       <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
+      <c r="U62" s="3">
+        <v>100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,85 +5390,88 @@
         <v>4000</v>
       </c>
       <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6301,76 +6496,76 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-500</v>
       </c>
       <c r="AC81" s="3">
         <v>-500</v>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6419,7 +6618,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -6446,7 +6645,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,52 +7140,55 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
       </c>
       <c r="G89" s="3">
         <v>-1200</v>
       </c>
       <c r="H89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-600</v>
       </c>
       <c r="R89" s="3">
         <v>-600</v>
@@ -6983,28 +7200,28 @@
         <v>-600</v>
       </c>
       <c r="U89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-300</v>
       </c>
       <c r="AC89" s="3">
         <v>-300</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7082,14 +7303,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,50 +7529,53 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7353,11 +7583,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7773,14 +8019,14 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -7788,28 +8034,28 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>600</v>
       </c>
       <c r="R100" s="3">
         <v>600</v>
@@ -7818,40 +8064,43 @@
         <v>600</v>
       </c>
       <c r="T100" s="3">
+        <v>600</v>
+      </c>
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,71 +8185,74 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -8017,9 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLYK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>HLYK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1600</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
       </c>
       <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1200</v>
       </c>
       <c r="S8" s="3">
         <v>1200</v>
@@ -844,7 +848,7 @@
         <v>1200</v>
       </c>
       <c r="U8" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="V8" s="3">
         <v>500</v>
@@ -853,7 +857,7 @@
         <v>500</v>
       </c>
       <c r="X8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y8" s="3">
         <v>600</v>
@@ -862,7 +866,7 @@
         <v>600</v>
       </c>
       <c r="AA8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AB8" s="3">
         <v>500</v>
@@ -871,18 +875,21 @@
         <v>500</v>
       </c>
       <c r="AD8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE8" s="3">
         <v>400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
         <v>700</v>
@@ -891,13 +898,13 @@
         <v>700</v>
       </c>
       <c r="G9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>800</v>
       </c>
       <c r="I9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
@@ -909,31 +916,31 @@
         <v>700</v>
       </c>
       <c r="M9" s="3">
+        <v>700</v>
+      </c>
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>500</v>
       </c>
       <c r="P9" s="3">
         <v>500</v>
       </c>
       <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
+      <c r="U9" s="3">
+        <v>300</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
@@ -965,64 +972,67 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
-        <v>900</v>
-      </c>
       <c r="J10" s="3">
+        <v>800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>900</v>
       </c>
       <c r="N10" s="3">
         <v>900</v>
       </c>
       <c r="O10" s="3">
+        <v>900</v>
+      </c>
+      <c r="P10" s="3">
         <v>1500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
       </c>
       <c r="Q10" s="3">
         <v>700</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S10" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
+      <c r="U10" s="3">
+        <v>900</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,23 +1282,26 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1295,67 +1315,70 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1375,7 +1398,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1393,7 +1416,7 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,177 +1509,183 @@
         <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="Q17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1400</v>
       </c>
       <c r="V17" s="3">
         <v>1400</v>
       </c>
       <c r="W17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I18" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J18" s="3">
         <v>-1500</v>
       </c>
       <c r="K18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q18" s="3">
         <v>-1000</v>
       </c>
       <c r="R18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-900</v>
       </c>
       <c r="V18" s="3">
         <v>-900</v>
       </c>
       <c r="W18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-400</v>
       </c>
       <c r="AD18" s="3">
         <v>-400</v>
       </c>
       <c r="AE18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AF18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,19 +1717,20 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1705,37 +1739,37 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1744,28 +1778,28 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-100</v>
       </c>
       <c r="AA20" s="3">
         <v>-100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
         <v>-100</v>
@@ -1773,85 +1807,88 @@
       <c r="AE20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1400</v>
-      </c>
       <c r="I21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-900</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-500</v>
       </c>
       <c r="AC21" s="3">
         <v>-500</v>
@@ -1862,19 +1899,22 @@
       <c r="AE21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1891,51 +1931,51 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
@@ -1951,88 +1991,91 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="X23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-500</v>
       </c>
       <c r="AD23" s="3">
         <v>-500</v>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,79 +2279,79 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="X26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-500</v>
       </c>
       <c r="AD26" s="3">
         <v>-500</v>
@@ -2307,8 +2359,11 @@
       <c r="AE26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,79 +2371,79 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="AB27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-500</v>
       </c>
       <c r="AD27" s="3">
         <v>-500</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,37 +2543,40 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-700</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,19 +2819,22 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -2773,37 +2843,37 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2812,28 +2882,28 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>100</v>
-      </c>
       <c r="AA32" s="3">
         <v>100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="3">
         <v>100</v>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2850,79 +2923,79 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-500</v>
       </c>
       <c r="AD33" s="3">
         <v>-500</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3028,79 +3107,79 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-500</v>
       </c>
       <c r="AD35" s="3">
         <v>-500</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,56 +3354,57 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
@@ -3325,40 +3412,43 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
         <v>100</v>
       </c>
       <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3392,14 +3482,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
@@ -3416,8 +3506,8 @@
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3446,22 +3536,25 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3485,13 +3578,13 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3533,15 +3626,18 @@
         <v>100</v>
       </c>
       <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -3559,7 +3655,7 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -3591,8 +3687,8 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
+      <c r="U44" s="3">
+        <v>100</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>5</v>
@@ -3606,8 +3702,8 @@
       <c r="Y44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3624,23 +3720,26 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3657,10 +3756,10 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3687,13 +3786,13 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
@@ -3705,60 +3804,63 @@
         <v>200</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
@@ -3770,25 +3872,25 @@
         <v>400</v>
       </c>
       <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>400</v>
       </c>
       <c r="Z46" s="3">
         <v>400</v>
       </c>
       <c r="AA46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
@@ -3797,13 +3899,16 @@
         <v>300</v>
       </c>
       <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,73 +3996,76 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3980,64 +4088,67 @@
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1400</v>
       </c>
       <c r="G49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H49" s="3">
         <v>5800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2600</v>
       </c>
       <c r="P49" s="3">
         <v>2600</v>
       </c>
       <c r="Q49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1300</v>
       </c>
       <c r="T49" s="3">
         <v>1300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
+      <c r="U49" s="3">
+        <v>1300</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
@@ -4051,8 +4162,8 @@
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4259,7 +4379,7 @@
         <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -4274,7 +4394,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,76 +4548,79 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>400</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
@@ -4509,13 +4635,16 @@
         <v>400</v>
       </c>
       <c r="AD54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE54" s="3">
         <v>300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,70 +4710,71 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4658,19 +4789,22 @@
         <v>300</v>
       </c>
       <c r="AB57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
       <c r="AD57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,88 +4812,91 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1700</v>
       </c>
       <c r="O58" s="3">
         <v>1700</v>
       </c>
       <c r="P58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2200</v>
       </c>
       <c r="V58" s="3">
         <v>2200</v>
       </c>
       <c r="W58" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="X58" s="3">
         <v>800</v>
       </c>
       <c r="Y58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,13 +4904,13 @@
         <v>1400</v>
       </c>
       <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
@@ -4782,62 +4919,62 @@
         <v>900</v>
       </c>
       <c r="J59" s="3">
+        <v>900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>800</v>
       </c>
       <c r="W59" s="3">
+        <v>800</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4847,97 +4984,103 @@
       <c r="AE59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
         <v>3300</v>
       </c>
       <c r="F60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4954,7 +5097,7 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
@@ -4963,32 +5106,32 @@
         <v>600</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4999,19 +5142,19 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>100</v>
-      </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>300</v>
@@ -5025,53 +5168,56 @@
       <c r="AE61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
       <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1700</v>
       </c>
       <c r="M62" s="3">
         <v>1700</v>
       </c>
       <c r="N62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
@@ -5084,8 +5230,8 @@
       <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
+      <c r="V62" s="3">
+        <v>100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
         <v>4000</v>
       </c>
       <c r="F66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,88 +6410,91 @@
         <v>1600</v>
       </c>
       <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6496,79 +6691,79 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-500</v>
       </c>
       <c r="AD81" s="3">
         <v>-500</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6621,7 +6820,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -6648,7 +6847,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,55 +7357,58 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1200</v>
       </c>
       <c r="H89" s="3">
         <v>-1200</v>
       </c>
       <c r="I89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-600</v>
       </c>
       <c r="S89" s="3">
         <v>-600</v>
@@ -7203,28 +7420,28 @@
         <v>-600</v>
       </c>
       <c r="V89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>-300</v>
       </c>
       <c r="AD89" s="3">
         <v>-300</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7306,14 +7527,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,53 +7759,56 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -7586,11 +7816,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,26 +8253,29 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -8037,28 +8283,28 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>600</v>
       </c>
       <c r="S100" s="3">
         <v>600</v>
@@ -8067,40 +8313,43 @@
         <v>600</v>
       </c>
       <c r="U100" s="3">
+        <v>600</v>
+      </c>
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>300</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,74 +8437,77 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8272,9 +8524,12 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
